--- a/wwwroot/Template/jobs.xlsx
+++ b/wwwroot/Template/jobs.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>End User</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Sale Department</t>
+  </si>
+  <si>
+    <t>BG Start</t>
+  </si>
+  <si>
+    <t>BG Finish</t>
+  </si>
+  <si>
+    <t>%Retention</t>
+  </si>
+  <si>
+    <t>%Bank Guarantee</t>
   </si>
 </sst>
 </file>
@@ -502,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -514,29 +535,29 @@
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="20.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="14" style="3" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="19.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="26.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="16.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
+    <col min="13" max="14" width="20.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="14" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" style="5" customWidth="1"/>
+    <col min="27" max="31" width="19.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -553,111 +574,132 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="1"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="9"/>
+    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="12"/>
+    <row r="5" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="2"/>
       <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="12"/>
+    <row r="6" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
       <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="12"/>
+    <row r="7" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
       <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="12"/>
+    <row r="8" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
       <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="12"/>
+    <row r="9" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="2"/>
       <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1"/>
+  <autoFilter ref="A1:AF1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/wwwroot/Template/jobs.xlsx
+++ b/wwwroot/Template/jobs.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>%Bank Guarantee</t>
+  </si>
+  <si>
+    <t>Responsible</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -555,9 +558,10 @@
     <col min="26" max="26" width="15.7109375" style="5" customWidth="1"/>
     <col min="27" max="31" width="19.7109375" style="3" customWidth="1"/>
     <col min="32" max="32" width="11.7109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -654,44 +658,47 @@
       <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L4" s="1"/>
       <c r="M4" s="8"/>
       <c r="N4" s="13"/>
       <c r="O4" s="11"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L5" s="2"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="12"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L6" s="2"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="12"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L7" s="2"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="12"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="2"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="12"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L9" s="2"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -699,7 +706,7 @@
       <c r="P9" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF1"/>
+  <autoFilter ref="A1:AG1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/wwwroot/Template/jobs.xlsx
+++ b/wwwroot/Template/jobs.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Estimate Cost</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Total Cost</t>
   </si>
   <si>
@@ -126,6 +123,27 @@
   </si>
   <si>
     <t>Responsible</t>
+  </si>
+  <si>
+    <t>ENG Cost</t>
+  </si>
+  <si>
+    <t>CIS Cost</t>
+  </si>
+  <si>
+    <t>AIS Cost</t>
+  </si>
+  <si>
+    <t>Job CIS In Hand</t>
+  </si>
+  <si>
+    <t>Job AIS In Hand</t>
+  </si>
+  <si>
+    <t>CIS Invoice</t>
+  </si>
+  <si>
+    <t>AIS Invoice</t>
   </si>
 </sst>
 </file>
@@ -526,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -540,28 +558,28 @@
     <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
     <col min="5" max="8" width="26.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="16.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
-    <col min="13" max="14" width="20.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="10" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="14" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" style="5" customWidth="1"/>
-    <col min="27" max="31" width="19.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="3" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="10" max="12" width="16.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="20.85546875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="15.28515625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" style="3" customWidth="1"/>
+    <col min="27" max="29" width="14" style="3" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="17.140625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" style="5" customWidth="1"/>
+    <col min="33" max="37" width="19.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -578,135 +596,153 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="1"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="9"/>
+    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="1"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="2"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="12"/>
+    <row r="5" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="2"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="8"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="2"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="12"/>
+    <row r="6" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="2"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="8"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="2"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="12"/>
+    <row r="7" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="2"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="2"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="12"/>
+    <row r="8" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="2"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="8"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="12"/>
+    <row r="9" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="8"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG1"/>
+  <autoFilter ref="A1:AM1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/wwwroot/Template/jobs.xlsx
+++ b/wwwroot/Template/jobs.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>AIS Invoice</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,9 +580,10 @@
     <col min="33" max="37" width="19.7109375" style="3" customWidth="1"/>
     <col min="38" max="38" width="11.7109375" style="3" customWidth="1"/>
     <col min="39" max="39" width="26.28515625" customWidth="1"/>
+    <col min="40" max="40" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -697,44 +701,47 @@
       <c r="AM1" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="AN1" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N4" s="1"/>
       <c r="O4" s="8"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N5" s="2"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N6" s="2"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N7" s="2"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N8" s="2"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N9" s="2"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -742,7 +749,7 @@
       <c r="R9" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AN1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
